--- a/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.608554850817457</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4986451083139637</v>
+        <v>0.4986451083139609</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9857850303775931</v>
@@ -649,7 +649,7 @@
         <v>0.3764766175831873</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.04122663277591978</v>
+        <v>0.04122663277591954</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09824025907798012</v>
+        <v>0.4042575664773914</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.157973511266259</v>
+        <v>-4.251683023035401</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.221979672253918</v>
+        <v>-2.13247863670006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.816820487434181</v>
+        <v>-3.848971172471447</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06102662534348623</v>
+        <v>0.007360013440646744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3756340298165933</v>
+        <v>-0.3820027502832012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2601486308936006</v>
+        <v>-0.2469791561540705</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2512420463428554</v>
+        <v>-0.2624366979774963</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.995711581497654</v>
+        <v>8.201981146263444</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.976675772262515</v>
+        <v>5.907261282378482</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.325087132266122</v>
+        <v>6.867977979840978</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.65552828056025</v>
+        <v>4.19101664307294</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.982990291360671</v>
+        <v>3.386702035116055</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8797525769545813</v>
+        <v>0.9395634301351945</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.347248316558443</v>
+        <v>1.441702058148396</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.491841759550422</v>
+        <v>0.4228272542886198</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.99534869941672</v>
+        <v>-2.199904371565029</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.183286561189085</v>
+        <v>-2.099280232600273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9709786385337097</v>
+        <v>-1.437917912758606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.969496582926659</v>
+        <v>-1.052100856672452</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2454256386190063</v>
+        <v>-0.2754261560494596</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1476560246270834</v>
+        <v>-0.1420369436555414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0826546575744897</v>
+        <v>-0.1096370898079708</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08665660254257322</v>
+        <v>-0.09320635901061936</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.466204293731348</v>
+        <v>4.21332729920509</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.240267497295319</v>
+        <v>7.234649320011405</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.709757991423726</v>
+        <v>6.667838217212767</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.600342216850903</v>
+        <v>5.528006350558388</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.876822738856987</v>
+        <v>0.8282686429776336</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7156215232156667</v>
+        <v>0.6949653351202899</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7878278981966124</v>
+        <v>0.8113190741369196</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7563104357959928</v>
+        <v>0.7306050348639792</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.283719454839074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.80307789420766</v>
+        <v>0.8030778942076627</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04766229961678087</v>
@@ -849,7 +849,7 @@
         <v>0.1064540402554731</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.05410017635889187</v>
+        <v>0.05410017635889206</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.579187502752981</v>
+        <v>-3.878966074927376</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.853662697612238</v>
+        <v>-3.615027636884507</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.237281084716083</v>
+        <v>-3.83183869667076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.072962534718238</v>
+        <v>-3.696872923852146</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3705109921469814</v>
+        <v>-0.4005674417958062</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3040603825943276</v>
+        <v>-0.2863408776633833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2866740999878774</v>
+        <v>-0.2836439930397359</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2320134362729658</v>
+        <v>-0.2158776219207425</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.842682667955075</v>
+        <v>4.907761700289296</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.495986633009358</v>
+        <v>6.584596500731886</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.389412706177621</v>
+        <v>7.037454116924531</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.997283480382523</v>
+        <v>5.517878466059757</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.920037008639477</v>
+        <v>0.8708046692234815</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8108959146570922</v>
+        <v>0.8039051541479538</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6734207614229104</v>
+        <v>0.6919785088357036</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3916790089538127</v>
+        <v>0.4566634284496089</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.478474160251031</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.692403655570097</v>
+        <v>1.6924036555701</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1260107554780419</v>
@@ -949,7 +949,7 @@
         <v>0.2347654657586187</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1498230146792202</v>
+        <v>0.1498230146792204</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.414056769605155</v>
+        <v>-2.439641078665967</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.843278347638609</v>
+        <v>-2.008205882937388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.52467024663984</v>
+        <v>-1.764616415228359</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.679978176353198</v>
+        <v>-2.928589790636492</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4203127710771603</v>
+        <v>-0.4132628339800659</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1496071686616603</v>
+        <v>-0.1506733326279501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1994110214122186</v>
+        <v>-0.1660540254734223</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1783322222101858</v>
+        <v>-0.2105427204005069</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.536496264859163</v>
+        <v>3.753226573804906</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.035645529679773</v>
+        <v>8.025461540406162</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.917607976136895</v>
+        <v>7.101031245044495</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.34017763619895</v>
+        <v>5.703467146655764</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.132788147377563</v>
+        <v>1.179656597279445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.994791776129424</v>
+        <v>1.028431803247074</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7878644042934793</v>
+        <v>0.8185276347060266</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6433309676132239</v>
+        <v>0.6188520491539897</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.608210984530102</v>
+        <v>-6.532001899016364</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.796819944610591</v>
+        <v>-1.822904812762783</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.130333685137138</v>
+        <v>-4.472130896976456</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2651760995173207</v>
+        <v>0.3001576607979113</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6570465249392388</v>
+        <v>-0.6627503805372462</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1672409828133345</v>
+        <v>-0.1088080208276195</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3467857725767993</v>
+        <v>-0.3105612431336391</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.02015992073202591</v>
+        <v>0.0181479197509832</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.484286592906885</v>
+        <v>3.235638623023112</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.00678896155843</v>
+        <v>12.60798637139521</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.764165293071327</v>
+        <v>7.921232631628857</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.71320333355733</v>
+        <v>10.46145875954905</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.902714481023879</v>
+        <v>0.6526047885822747</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.135024230370465</v>
+        <v>1.305670514772739</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8470859016586584</v>
+        <v>0.8775741637898523</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9212435917201786</v>
+        <v>0.8570650984552693</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.4823596261071664</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-3.391337962044516</v>
+        <v>-3.391337962044519</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.277049059813742</v>
@@ -1149,7 +1149,7 @@
         <v>0.05525932558111234</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1656710041694242</v>
+        <v>-0.1656710041694243</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.761388970896403</v>
+        <v>1.823075297165874</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.320381530287543</v>
+        <v>-5.265541361290527</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.554287317936545</v>
+        <v>-4.687108247603336</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-8.648142790187888</v>
+        <v>-8.540079795260723</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1745882507207727</v>
+        <v>0.1320237058841919</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3432322241050314</v>
+        <v>-0.3281519121765431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4275037313603736</v>
+        <v>-0.410672970350005</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.361545223406851</v>
+        <v>-0.3582585938592412</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.90372574136819</v>
+        <v>11.23563974838647</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.24563195841924</v>
+        <v>5.702590157107479</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.296782148789067</v>
+        <v>5.532987557310451</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.29032484539711</v>
+        <v>1.663897760196406</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.318867493686934</v>
+        <v>3.896850184863481</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5907750538603844</v>
+        <v>0.5960026339667515</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8368966488525538</v>
+        <v>0.9245276304008978</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07384402976285251</v>
+        <v>0.09418712619930204</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.1942173713980436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.319473039714413</v>
+        <v>3.31947303971441</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3533613461219994</v>
@@ -1249,7 +1249,7 @@
         <v>-0.02437919826530601</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.3031246195094561</v>
+        <v>0.3031246195094558</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6111549647360115</v>
+        <v>-0.7985597066518875</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.14853757679378</v>
+        <v>-3.187843540494204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.059837406167409</v>
+        <v>-3.693040764899089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.29448274782534</v>
+        <v>0.3614819252708517</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1080774659992272</v>
+        <v>-0.1261336153069922</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2579338576460042</v>
+        <v>-0.262045580996237</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3207805769421808</v>
+        <v>-0.381611281498407</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.02009386162139043</v>
+        <v>0.02866822968390408</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.041244065973031</v>
+        <v>4.778819750755437</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.288124320590811</v>
+        <v>3.696192535489537</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.562148223393197</v>
+        <v>2.692689101927322</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.423394256340975</v>
+        <v>6.84954436325034</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.136288739082215</v>
+        <v>1.062916234925514</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4943996056606998</v>
+        <v>0.4077587302163935</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5928846796511208</v>
+        <v>0.4181738617907592</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6924920315125979</v>
+        <v>0.7429199591229014</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.194763736695546</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.030682116612334</v>
+        <v>2.030682116612337</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5063856070322158</v>
@@ -1349,7 +1349,7 @@
         <v>0.2493435738477516</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.203307507711934</v>
+        <v>0.2033075077119343</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2901713941991774</v>
+        <v>0.2412381152357824</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2583673008873683</v>
+        <v>0.3714146003324775</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.8231791441786058</v>
+        <v>-0.8175082006814299</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.599720897297056</v>
+        <v>-0.8405771133625231</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01185275812935118</v>
+        <v>0.0250163718539756</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02164002078843305</v>
+        <v>0.03523091257097578</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07894554791318212</v>
+        <v>-0.07972824844362704</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06339116252230377</v>
+        <v>-0.07327749434534837</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.577246503665055</v>
+        <v>5.46910688772332</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.008846610609893</v>
+        <v>5.818154119051087</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.446440387505572</v>
+        <v>5.288910143641189</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.646744977513319</v>
+        <v>4.976285155020087</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.206498509079136</v>
+        <v>1.233301844120834</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.058746967657483</v>
+        <v>1.050484613144581</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7770590990211628</v>
+        <v>0.6872097455764277</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5411835855216707</v>
+        <v>0.580269945675312</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9320747776324295</v>
+        <v>0.8554060347013224</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2095865278119729</v>
+        <v>0.3287735678141615</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1086880654734715</v>
+        <v>0.056609429533083</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.493920034988843</v>
+        <v>0.5360673573973981</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1399649498305195</v>
+        <v>0.1329902910180228</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01845352899749561</v>
+        <v>0.03025938857046378</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01090922633783723</v>
+        <v>0.001885153183015408</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.03981393110920547</v>
+        <v>0.04191158397553388</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.320612207200425</v>
+        <v>3.405562215966117</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.579369124451453</v>
+        <v>3.434768977451878</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.129058521308277</v>
+        <v>3.036229887144141</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.236210084376716</v>
+        <v>3.243753489656306</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.64178733338521</v>
+        <v>0.6418022395701427</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3734532141560775</v>
+        <v>0.3633421201876718</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3613314305784512</v>
+        <v>0.3477681479768569</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2949433804072215</v>
+        <v>0.2926923508432675</v>
       </c>
     </row>
     <row r="31">
